--- a/data/2026-01-28/leaderboard.xlsx
+++ b/data/2026-01-28/leaderboard.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="174" uniqueCount="114">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="171" uniqueCount="112">
   <si>
     <t>rank</t>
   </si>
@@ -46,267 +46,264 @@
     <t>avinash.b0802@gmail.com</t>
   </si>
   <si>
+    <t>ghoshsubhajit75@gmail.com</t>
+  </si>
+  <si>
     <t>vaishali14041992@gmail.com</t>
   </si>
   <si>
-    <t>ghoshsubhajit75@gmail.com</t>
-  </si>
-  <si>
     <t>rajasekhar150520@gmail.com</t>
   </si>
   <si>
+    <t>goutamraju.dandu@gmail.com</t>
+  </si>
+  <si>
+    <t>krishna.sabbu@gmail.com</t>
+  </si>
+  <si>
     <t>haripriyanv@gmail.com</t>
   </si>
   <si>
-    <t>krishna.sabbu@gmail.com</t>
+    <t>srevuri2@gmail.com</t>
+  </si>
+  <si>
+    <t>sunil.ynvd@gmail.com</t>
+  </si>
+  <si>
+    <t>manish.indoriya@gmail.com</t>
+  </si>
+  <si>
+    <t>jeevanandam@gmail.com</t>
   </si>
   <si>
     <t>sanzay.16@gmail.com</t>
   </si>
   <si>
-    <t>sunil.ynvd@gmail.com</t>
-  </si>
-  <si>
-    <t>srevuri2@gmail.com</t>
-  </si>
-  <si>
-    <t>manish.indoriya@gmail.com</t>
+    <t>r.shishir812@gmail.com</t>
+  </si>
+  <si>
+    <t>kalyan9999@live.com</t>
+  </si>
+  <si>
+    <t>sjraut3108@gmail.com</t>
+  </si>
+  <si>
+    <t>m.marycatherine@outlook.com</t>
   </si>
   <si>
     <t>vdpchittala@gmail.com</t>
   </si>
   <si>
-    <t>sjraut3108@gmail.com</t>
+    <t>kalyan9999@live (1).com</t>
+  </si>
+  <si>
+    <t>joacatar@gmail.com</t>
+  </si>
+  <si>
+    <t>ajay.g415@gmail.com</t>
+  </si>
+  <si>
+    <t>mj.crazzy@gmail.com</t>
   </si>
   <si>
     <t>sonal.agrawal9947@gmail.com</t>
   </si>
   <si>
-    <t>kalyan9999@live (1).com</t>
-  </si>
-  <si>
-    <t>goutamraju.dandu@gmail.com</t>
-  </si>
-  <si>
-    <t>jeevanandam@gmail.com</t>
+    <t>sarath</t>
   </si>
   <si>
     <t>adiagutsyboy@gmail.com</t>
   </si>
   <si>
-    <t>r.shishir812@gmail.com</t>
-  </si>
-  <si>
-    <t>joacatar@gmail.com</t>
-  </si>
-  <si>
-    <t>kalyan9999@live.com</t>
-  </si>
-  <si>
-    <t>sarath</t>
+    <t>lindankemtaji@gmail.com</t>
   </si>
   <si>
     <t>krisbhappy@icloud.com</t>
   </si>
   <si>
-    <t>m.marycatherine@outlook.com</t>
+    <t>madhuriyoshi@gmail.com</t>
   </si>
   <si>
     <t>flowervalli@gmail.com</t>
   </si>
   <si>
-    <t>ajay.g415@gmail.com</t>
+    <t>kalyan9999@live (2).com</t>
+  </si>
+  <si>
+    <t>issaczerubbabel@gmail.com</t>
+  </si>
+  <si>
+    <t>simhadri.bobba@gmail.com</t>
+  </si>
+  <si>
+    <t>dheeraj.018@gmail.com</t>
+  </si>
+  <si>
+    <t>aakritisaraogi0709@gmail.com</t>
+  </si>
+  <si>
+    <t>bussraj@gmail.com</t>
+  </si>
+  <si>
+    <t>vikasraj4982@gmail.com</t>
+  </si>
+  <si>
+    <t>sonalip.mca@gmail.com</t>
+  </si>
+  <si>
+    <t>pshashank80@gmail.com</t>
+  </si>
+  <si>
+    <t>rajumbaligar123@gmail.com</t>
+  </si>
+  <si>
+    <t>rajeshkalwakuntla@gmail (1).com</t>
+  </si>
+  <si>
+    <t>kranthi16t@gmail.com</t>
+  </si>
+  <si>
+    <t>vidhya.arul@gmail.com</t>
+  </si>
+  <si>
+    <t>vamsikrishnabattineedi@gmail.com</t>
+  </si>
+  <si>
+    <t>kundanikareddyb@gmail.com</t>
   </si>
   <si>
     <t>rameshsankars@gmail.com</t>
   </si>
   <si>
-    <t>mj.crazzy@gmail.com</t>
-  </si>
-  <si>
-    <t>simhadri.bobba@gmail.com</t>
-  </si>
-  <si>
-    <t>lindankemtaji@gmail.com</t>
-  </si>
-  <si>
-    <t>kundanikareddyb@gmail.com</t>
-  </si>
-  <si>
-    <t>vamsikrishnabattineedi@gmail.com</t>
-  </si>
-  <si>
-    <t>madhuriyoshi@gmail.com</t>
-  </si>
-  <si>
     <t>jaswanthrajeti@gmail.com</t>
   </si>
   <si>
-    <t>issaczerubbabel@gmail.com</t>
-  </si>
-  <si>
-    <t>kalyan9999@live (2).com</t>
-  </si>
-  <si>
-    <t>dheeraj.018@gmail.com</t>
-  </si>
-  <si>
-    <t>aakritisaraogi0709@gmail.com</t>
-  </si>
-  <si>
-    <t>bussraj@gmail.com</t>
-  </si>
-  <si>
-    <t>vikasraj4982@gmail.com</t>
-  </si>
-  <si>
-    <t>sonalip.mca@gmail.com</t>
-  </si>
-  <si>
-    <t>rajeshkalwakuntla@gmail (1).com</t>
-  </si>
-  <si>
-    <t>rajumbaligar123@gmail.com</t>
-  </si>
-  <si>
-    <t>pshashank80@gmail.com</t>
+    <t>shristisonal3012@gmail.com</t>
+  </si>
+  <si>
+    <t>gvsubbaiah2007@gmail.com</t>
+  </si>
+  <si>
+    <t>basavaiahjavatech@gmail.com</t>
+  </si>
+  <si>
+    <t>pradhanronak@gmail.com</t>
+  </si>
+  <si>
+    <t>bealearner0409@gmail.com</t>
+  </si>
+  <si>
+    <t>bhaskarangovindan@gmail.com</t>
+  </si>
+  <si>
+    <t>johnbosco72@gmail.com</t>
+  </si>
+  <si>
+    <t>rameshreddy.mv@gmail.com</t>
+  </si>
+  <si>
+    <t>siddharthiibr@gmail.com</t>
+  </si>
+  <si>
+    <t>sudhakarnooka@gmail.com</t>
   </si>
   <si>
     <t>tarunbc29@gmail.com</t>
   </si>
   <si>
+    <t>abhishek.tutika@gmail.com</t>
+  </si>
+  <si>
+    <t>bala.osho@gmail.com</t>
+  </si>
+  <si>
+    <t>deepanshu.jdr@gmail.com</t>
+  </si>
+  <si>
+    <t>revathipadma25@gmail.com</t>
+  </si>
+  <si>
+    <t>kprasanna</t>
+  </si>
+  <si>
+    <t>stellaniko@hotmail.com</t>
+  </si>
+  <si>
+    <t>kakkartanishq13@gmail.com</t>
+  </si>
+  <si>
+    <t>shwetha.sri87@gmail.com</t>
+  </si>
+  <si>
+    <t>kaushal.rajput1301@gmail.com</t>
+  </si>
+  <si>
+    <t>rajeshkalwakuntla@gmail.com</t>
+  </si>
+  <si>
+    <t>krajshekar535@gmail.com</t>
+  </si>
+  <si>
+    <t>zdijaz@gmail.com</t>
+  </si>
+  <si>
+    <t>geetasen.geet@gmail.com</t>
+  </si>
+  <si>
+    <t>sreedeepthi.ch2@gmail.com</t>
+  </si>
+  <si>
+    <t>swethagorantla17@gmail.com</t>
+  </si>
+  <si>
+    <t>kaushalheenavk@gmail.com</t>
+  </si>
+  <si>
+    <t>quadri.yousuf8@gmail.com</t>
+  </si>
+  <si>
+    <t>keerthanasenthil02@gmail.com</t>
+  </si>
+  <si>
+    <t>srisrihithab@gmail.com</t>
+  </si>
+  <si>
+    <t>jagadeeshkella@gmail.com</t>
+  </si>
+  <si>
+    <t>sarangmehta07@gmail.com</t>
+  </si>
+  <si>
+    <t>swetha.mitta22@gmail.com</t>
+  </si>
+  <si>
+    <t>surekha.javadeveloper89@gmail.com</t>
+  </si>
+  <si>
+    <t>Raghunatha.R.Devireddy@wellsfargo.com</t>
+  </si>
+  <si>
+    <t>geetha.madhuri123@gmail.com</t>
+  </si>
+  <si>
+    <t>jagannadha.kola@gmail.com</t>
+  </si>
+  <si>
+    <t>murali.ravipudi@gmail.com</t>
+  </si>
+  <si>
+    <t>jyothsna.munipalle@gmail.com</t>
+  </si>
+  <si>
+    <t>sherstyuk@gmail.com</t>
+  </si>
+  <si>
+    <t>rajeshkalwakuntla@gmail (2).com</t>
+  </si>
+  <si>
     <t>kumaran47@gmail.com</t>
   </si>
   <si>
-    <t>kranthi16t@gmail.com</t>
-  </si>
-  <si>
-    <t>vidhya.arul@gmail.com</t>
-  </si>
-  <si>
-    <t>gvsubbaiah2007@gmail.com</t>
-  </si>
-  <si>
-    <t>quadri.yousuf8@gmail.com</t>
-  </si>
-  <si>
-    <t>basavaiahjavatech@gmail.com</t>
-  </si>
-  <si>
-    <t>pradhanronak@gmail.com</t>
-  </si>
-  <si>
-    <t>bhaskarangovindan@gmail.com</t>
-  </si>
-  <si>
-    <t>bealearner0409@gmail.com</t>
-  </si>
-  <si>
-    <t>keerthanasenthil02@gmail.com</t>
-  </si>
-  <si>
-    <t>test.jpg</t>
-  </si>
-  <si>
-    <t>revathipadma25@gmail.com</t>
-  </si>
-  <si>
-    <t>johnbosco72@gmail.com</t>
-  </si>
-  <si>
-    <t>siddharthiibr@gmail.com</t>
-  </si>
-  <si>
-    <t>sudhakarnooka@gmail.com</t>
-  </si>
-  <si>
-    <t>jyothsna.munipalle@gmail.com</t>
-  </si>
-  <si>
-    <t>bala.osho@gmail.com</t>
-  </si>
-  <si>
-    <t>abhishek.tutika@gmail.com</t>
-  </si>
-  <si>
-    <t>rajeshkalwakuntla@gmail.com</t>
-  </si>
-  <si>
-    <t>shristisonal3012@gmail.com</t>
-  </si>
-  <si>
-    <t>stellaniko@hotmail.com</t>
-  </si>
-  <si>
-    <t>kprasanna</t>
-  </si>
-  <si>
-    <t>geetha.madhuri123@gmail.com</t>
-  </si>
-  <si>
-    <t>deepanshu.jdr@gmail.com</t>
-  </si>
-  <si>
-    <t>kakkartanishq13@gmail.com</t>
-  </si>
-  <si>
-    <t>rameshreddy.mv@gmail.com</t>
-  </si>
-  <si>
-    <t>shwetha.sri87@gmail.com</t>
-  </si>
-  <si>
-    <t>kaushal.rajput1301@gmail.com</t>
-  </si>
-  <si>
-    <t>krajshekar535@gmail.com</t>
-  </si>
-  <si>
-    <t>geetasen.geet@gmail.com</t>
-  </si>
-  <si>
-    <t>zdijaz@gmail.com</t>
-  </si>
-  <si>
-    <t>sreedeepthi.ch2@gmail.com</t>
-  </si>
-  <si>
-    <t>swethagorantla17@gmail.com</t>
-  </si>
-  <si>
-    <t>kaushalheenavk@gmail.com</t>
-  </si>
-  <si>
-    <t>jagadeeshkella@gmail.com</t>
-  </si>
-  <si>
-    <t>sarangmehta07@gmail.com</t>
-  </si>
-  <si>
-    <t>srisrihithab@gmail.com</t>
-  </si>
-  <si>
-    <t>surekha.javadeveloper89@gmail.com</t>
-  </si>
-  <si>
-    <t>swetha.mitta22@gmail.com</t>
-  </si>
-  <si>
-    <t>Raghunatha.R.Devireddy@wellsfargo.com</t>
-  </si>
-  <si>
-    <t>jagannadha.kola@gmail.com</t>
-  </si>
-  <si>
-    <t>murali.ravipudi@gmail.com</t>
-  </si>
-  <si>
-    <t>sherstyuk@gmail.com</t>
-  </si>
-  <si>
-    <t>rajeshkalwakuntla@gmail (2).com</t>
-  </si>
-  <si>
     <t>rajkumar.msis@gmail.com</t>
   </si>
   <si>
@@ -331,28 +328,25 @@
     <t>cardio, sport</t>
   </si>
   <si>
+    <t>cardio</t>
+  </si>
+  <si>
     <t>cardio, strength_training</t>
   </si>
   <si>
-    <t>cardio</t>
+    <t>cardio, sport, strength_training</t>
   </si>
   <si>
     <t>cardio, yoga</t>
   </si>
   <si>
-    <t>sport, strength_training</t>
-  </si>
-  <si>
-    <t>cardio, sport, strength_training</t>
-  </si>
-  <si>
     <t>sport</t>
   </si>
   <si>
+    <t>strength_training</t>
+  </si>
+  <si>
     <t>cardio, strength_training, yoga</t>
-  </si>
-  <si>
-    <t>strength_training</t>
   </si>
   <si>
     <t>yoga</t>
@@ -713,7 +707,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H97"/>
+  <dimension ref="A1:H96"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -753,22 +747,22 @@
         <v>8</v>
       </c>
       <c r="C2">
-        <v>88713</v>
+        <v>64802</v>
       </c>
       <c r="D2">
-        <v>559</v>
+        <v>378</v>
       </c>
       <c r="E2">
         <v>0</v>
       </c>
       <c r="F2">
-        <v>640</v>
+        <v>356</v>
       </c>
       <c r="G2">
-        <v>4000</v>
+        <v>3100</v>
       </c>
       <c r="H2" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
     </row>
     <row r="3" spans="1:8">
@@ -779,22 +773,22 @@
         <v>9</v>
       </c>
       <c r="C3">
-        <v>80281</v>
+        <v>60192</v>
       </c>
       <c r="D3">
-        <v>4262</v>
+        <v>3109</v>
       </c>
       <c r="E3">
-        <v>65.78999999999999</v>
+        <v>49.77</v>
       </c>
       <c r="F3">
-        <v>240</v>
+        <v>180</v>
       </c>
       <c r="G3">
-        <v>3500</v>
+        <v>2600</v>
       </c>
       <c r="H3" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
     </row>
     <row r="4" spans="1:8">
@@ -805,22 +799,22 @@
         <v>10</v>
       </c>
       <c r="C4">
-        <v>9117142019</v>
+        <v>65806</v>
       </c>
       <c r="D4">
-        <v>5111</v>
+        <v>628</v>
       </c>
       <c r="E4">
-        <v>77.672</v>
+        <v>32.64</v>
       </c>
       <c r="F4">
-        <v>1437</v>
+        <v>159</v>
       </c>
       <c r="G4">
-        <v>3210</v>
+        <v>2400</v>
       </c>
       <c r="H4" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
     </row>
     <row r="5" spans="1:8">
@@ -831,22 +825,22 @@
         <v>11</v>
       </c>
       <c r="C5">
-        <v>86596</v>
+        <v>42133</v>
       </c>
       <c r="D5">
-        <v>695</v>
+        <v>4466</v>
       </c>
       <c r="E5">
-        <v>38.27</v>
+        <v>56.746</v>
       </c>
       <c r="F5">
-        <v>194</v>
+        <v>756</v>
       </c>
       <c r="G5">
-        <v>3200</v>
+        <v>2330</v>
       </c>
       <c r="H5" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
     </row>
     <row r="6" spans="1:8">
@@ -857,22 +851,22 @@
         <v>12</v>
       </c>
       <c r="C6">
-        <v>72754</v>
+        <v>46598</v>
       </c>
       <c r="D6">
         <v>0</v>
       </c>
       <c r="E6">
-        <v>402.09</v>
+        <v>371.62</v>
       </c>
       <c r="F6">
-        <v>3187.4</v>
+        <v>2995</v>
       </c>
       <c r="G6">
-        <v>2825</v>
+        <v>2225</v>
       </c>
       <c r="H6" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
     </row>
     <row r="7" spans="1:8">
@@ -883,22 +877,22 @@
         <v>13</v>
       </c>
       <c r="C7">
-        <v>140032</v>
+        <v>25598</v>
       </c>
       <c r="D7">
-        <v>1784</v>
+        <v>8165</v>
       </c>
       <c r="E7">
-        <v>55.37</v>
+        <v>12.96</v>
       </c>
       <c r="F7">
-        <v>126</v>
+        <v>961</v>
       </c>
       <c r="G7">
-        <v>2670</v>
+        <v>2100</v>
       </c>
       <c r="H7" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
     </row>
     <row r="8" spans="1:8">
@@ -909,22 +903,22 @@
         <v>14</v>
       </c>
       <c r="C8">
-        <v>68622</v>
+        <v>52234</v>
       </c>
       <c r="D8">
         <v>697</v>
       </c>
       <c r="E8">
-        <v>37.62</v>
+        <v>26.27</v>
       </c>
       <c r="F8">
-        <v>267</v>
+        <v>180</v>
       </c>
       <c r="G8">
-        <v>2600</v>
+        <v>2000</v>
       </c>
       <c r="H8" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
     </row>
     <row r="9" spans="1:8">
@@ -935,22 +929,22 @@
         <v>15</v>
       </c>
       <c r="C9">
-        <v>23828</v>
+        <v>45025</v>
       </c>
       <c r="D9">
-        <v>0</v>
+        <v>1784</v>
       </c>
       <c r="E9">
-        <v>17.69</v>
+        <v>115.43</v>
       </c>
       <c r="F9">
-        <v>444</v>
+        <v>126</v>
       </c>
       <c r="G9">
-        <v>2480</v>
+        <v>1935</v>
       </c>
       <c r="H9" t="s">
-        <v>104</v>
+        <v>107</v>
       </c>
     </row>
     <row r="10" spans="1:8">
@@ -961,22 +955,22 @@
         <v>16</v>
       </c>
       <c r="C10">
-        <v>63111</v>
+        <v>40951</v>
       </c>
       <c r="D10">
-        <v>10113</v>
+        <v>1337</v>
       </c>
       <c r="E10">
-        <v>68.2</v>
+        <v>40.8</v>
       </c>
       <c r="F10">
-        <v>848</v>
+        <v>488</v>
       </c>
       <c r="G10">
-        <v>2400</v>
+        <v>1925</v>
       </c>
       <c r="H10" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
     </row>
     <row r="11" spans="1:8">
@@ -987,22 +981,22 @@
         <v>17</v>
       </c>
       <c r="C11">
-        <v>41345</v>
+        <v>47382</v>
       </c>
       <c r="D11">
-        <v>1959</v>
+        <v>7728</v>
       </c>
       <c r="E11">
-        <v>57</v>
+        <v>51.47</v>
       </c>
       <c r="F11">
-        <v>658</v>
+        <v>644</v>
       </c>
       <c r="G11">
-        <v>2250</v>
+        <v>1800</v>
       </c>
       <c r="H11" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
     </row>
     <row r="12" spans="1:8">
@@ -1013,22 +1007,22 @@
         <v>18</v>
       </c>
       <c r="C12">
-        <v>55071</v>
+        <v>46695</v>
       </c>
       <c r="D12">
-        <v>4951</v>
+        <v>4538</v>
       </c>
       <c r="E12">
-        <v>1655.39</v>
+        <v>1648.35</v>
       </c>
       <c r="F12">
-        <v>911</v>
+        <v>1009</v>
       </c>
       <c r="G12">
-        <v>2180</v>
+        <v>1800</v>
       </c>
       <c r="H12" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
     </row>
     <row r="13" spans="1:8">
@@ -1039,22 +1033,22 @@
         <v>19</v>
       </c>
       <c r="C13">
-        <v>118978</v>
+        <v>41201</v>
       </c>
       <c r="D13">
-        <v>0</v>
+        <v>2053</v>
       </c>
       <c r="E13">
-        <v>4.82</v>
+        <v>318.01</v>
       </c>
       <c r="F13">
-        <v>378</v>
+        <v>287</v>
       </c>
       <c r="G13">
-        <v>2150</v>
+        <v>1800</v>
       </c>
       <c r="H13" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
     </row>
     <row r="14" spans="1:8">
@@ -1065,22 +1059,22 @@
         <v>20</v>
       </c>
       <c r="C14">
-        <v>35203</v>
+        <v>21743</v>
       </c>
       <c r="D14">
-        <v>133</v>
+        <v>0</v>
       </c>
       <c r="E14">
-        <v>17.98</v>
+        <v>12.59</v>
       </c>
       <c r="F14">
-        <v>440</v>
+        <v>372</v>
       </c>
       <c r="G14">
-        <v>2145</v>
+        <v>1655</v>
       </c>
       <c r="H14" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
     </row>
     <row r="15" spans="1:8">
@@ -1091,22 +1085,22 @@
         <v>21</v>
       </c>
       <c r="C15">
-        <v>60743</v>
+        <v>27133</v>
       </c>
       <c r="D15">
-        <v>4768</v>
+        <v>5309</v>
       </c>
       <c r="E15">
-        <v>72.44999999999999</v>
+        <v>6.686999999999999</v>
       </c>
       <c r="F15">
-        <v>144</v>
+        <v>369</v>
       </c>
       <c r="G15">
-        <v>1960</v>
+        <v>1650</v>
       </c>
       <c r="H15" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
     </row>
     <row r="16" spans="1:8">
@@ -1117,7 +1111,7 @@
         <v>22</v>
       </c>
       <c r="C16">
-        <v>25553</v>
+        <v>58180</v>
       </c>
       <c r="D16">
         <v>0</v>
@@ -1126,13 +1120,13 @@
         <v>0</v>
       </c>
       <c r="F16">
-        <v>353</v>
+        <v>584</v>
       </c>
       <c r="G16">
-        <v>1900</v>
+        <v>1635</v>
       </c>
       <c r="H16" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
     </row>
     <row r="17" spans="1:8">
@@ -1143,22 +1137,22 @@
         <v>23</v>
       </c>
       <c r="C17">
-        <v>25598</v>
+        <v>26804</v>
       </c>
       <c r="D17">
-        <v>8165</v>
+        <v>133</v>
       </c>
       <c r="E17">
-        <v>12.96</v>
+        <v>13.48</v>
       </c>
       <c r="F17">
-        <v>910</v>
+        <v>291</v>
       </c>
       <c r="G17">
-        <v>1800</v>
+        <v>1465</v>
       </c>
       <c r="H17" t="s">
-        <v>109</v>
+        <v>105</v>
       </c>
     </row>
     <row r="18" spans="1:8">
@@ -1169,22 +1163,22 @@
         <v>24</v>
       </c>
       <c r="C18">
-        <v>41201</v>
+        <v>29811</v>
       </c>
       <c r="D18">
-        <v>2343</v>
+        <v>2461</v>
       </c>
       <c r="E18">
-        <v>33.55</v>
+        <v>23.25</v>
       </c>
       <c r="F18">
-        <v>387</v>
+        <v>347</v>
       </c>
       <c r="G18">
-        <v>1800</v>
+        <v>1450</v>
       </c>
       <c r="H18" t="s">
-        <v>110</v>
+        <v>105</v>
       </c>
     </row>
     <row r="19" spans="1:8">
@@ -1195,22 +1189,22 @@
         <v>25</v>
       </c>
       <c r="C19">
-        <v>18</v>
+        <v>36798</v>
       </c>
       <c r="D19">
-        <v>2498</v>
+        <v>0</v>
       </c>
       <c r="E19">
-        <v>23.92</v>
+        <v>4.82</v>
       </c>
       <c r="F19">
-        <v>380</v>
+        <v>249</v>
       </c>
       <c r="G19">
-        <v>1750</v>
+        <v>1350</v>
       </c>
       <c r="H19" t="s">
-        <v>109</v>
+        <v>104</v>
       </c>
     </row>
     <row r="20" spans="1:8">
@@ -1221,22 +1215,22 @@
         <v>26</v>
       </c>
       <c r="C20">
-        <v>27133</v>
+        <v>25553</v>
       </c>
       <c r="D20">
-        <v>5309</v>
+        <v>0</v>
       </c>
       <c r="E20">
-        <v>6.686999999999999</v>
+        <v>0</v>
       </c>
       <c r="F20">
-        <v>322</v>
+        <v>353</v>
       </c>
       <c r="G20">
-        <v>1650</v>
+        <v>1300</v>
       </c>
       <c r="H20" t="s">
-        <v>105</v>
+        <v>108</v>
       </c>
     </row>
     <row r="21" spans="1:8">
@@ -1250,19 +1244,19 @@
         <v>8103</v>
       </c>
       <c r="D21">
-        <v>966</v>
+        <v>759</v>
       </c>
       <c r="E21">
         <v>0</v>
       </c>
       <c r="F21">
-        <v>228</v>
+        <v>183</v>
       </c>
       <c r="G21">
-        <v>1580</v>
+        <v>1280</v>
       </c>
       <c r="H21" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
     </row>
     <row r="22" spans="1:8">
@@ -1273,19 +1267,22 @@
         <v>28</v>
       </c>
       <c r="C22">
-        <v>65254</v>
+        <v>32562</v>
       </c>
       <c r="D22">
-        <v>0</v>
+        <v>863</v>
       </c>
       <c r="E22">
-        <v>0</v>
+        <v>32.19</v>
       </c>
       <c r="F22">
-        <v>747</v>
+        <v>418</v>
       </c>
       <c r="G22">
-        <v>1470</v>
+        <v>1200</v>
+      </c>
+      <c r="H22" t="s">
+        <v>104</v>
       </c>
     </row>
     <row r="23" spans="1:8">
@@ -1296,19 +1293,19 @@
         <v>29</v>
       </c>
       <c r="C23">
-        <v>11864</v>
+        <v>15387</v>
       </c>
       <c r="D23">
-        <v>244</v>
+        <v>3078</v>
       </c>
       <c r="E23">
-        <v>2.99</v>
+        <v>3.5</v>
       </c>
       <c r="F23">
-        <v>144</v>
+        <v>1707</v>
       </c>
       <c r="G23">
-        <v>1470</v>
+        <v>1200</v>
       </c>
       <c r="H23" t="s">
         <v>105</v>
@@ -1322,22 +1319,22 @@
         <v>30</v>
       </c>
       <c r="C24">
-        <v>12183</v>
+        <v>40228</v>
       </c>
       <c r="D24">
-        <v>10080</v>
+        <v>3673</v>
       </c>
       <c r="E24">
-        <v>6</v>
+        <v>54.92999999999999</v>
       </c>
       <c r="F24">
-        <v>123</v>
+        <v>108</v>
       </c>
       <c r="G24">
-        <v>1450</v>
+        <v>1160</v>
       </c>
       <c r="H24" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
     </row>
     <row r="25" spans="1:8">
@@ -1348,19 +1345,19 @@
         <v>31</v>
       </c>
       <c r="C25">
-        <v>29811</v>
+        <v>5932</v>
       </c>
       <c r="D25">
-        <v>2461</v>
+        <v>244</v>
       </c>
       <c r="E25">
-        <v>23.25</v>
+        <v>1.63</v>
       </c>
       <c r="F25">
-        <v>347</v>
+        <v>102</v>
       </c>
       <c r="G25">
-        <v>1450</v>
+        <v>1035</v>
       </c>
       <c r="H25" t="s">
         <v>105</v>
@@ -1374,19 +1371,19 @@
         <v>32</v>
       </c>
       <c r="C26">
-        <v>18845</v>
+        <v>8</v>
       </c>
       <c r="D26">
-        <v>0</v>
+        <v>1611</v>
       </c>
       <c r="E26">
-        <v>355.888</v>
+        <v>16.36</v>
       </c>
       <c r="F26">
-        <v>121</v>
+        <v>226</v>
       </c>
       <c r="G26">
-        <v>1235</v>
+        <v>1025</v>
       </c>
       <c r="H26" t="s">
         <v>106</v>
@@ -1400,22 +1397,22 @@
         <v>33</v>
       </c>
       <c r="C27">
-        <v>32562</v>
+        <v>28201</v>
       </c>
       <c r="D27">
-        <v>863</v>
+        <v>1947</v>
       </c>
       <c r="E27">
-        <v>32.19</v>
+        <v>6.889999999999999</v>
       </c>
       <c r="F27">
-        <v>417</v>
+        <v>425</v>
       </c>
       <c r="G27">
-        <v>1200</v>
+        <v>980</v>
       </c>
       <c r="H27" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
     </row>
     <row r="28" spans="1:8">
@@ -1426,22 +1423,22 @@
         <v>34</v>
       </c>
       <c r="C28">
-        <v>0</v>
+        <v>12183</v>
       </c>
       <c r="D28">
-        <v>254</v>
+        <v>9900</v>
       </c>
       <c r="E28">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="F28">
-        <v>94</v>
+        <v>185</v>
       </c>
       <c r="G28">
-        <v>1200</v>
+        <v>950</v>
       </c>
       <c r="H28" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
     </row>
     <row r="29" spans="1:8">
@@ -1452,22 +1449,22 @@
         <v>35</v>
       </c>
       <c r="C29">
-        <v>15387</v>
+        <v>7547</v>
       </c>
       <c r="D29">
-        <v>3078</v>
+        <v>405</v>
       </c>
       <c r="E29">
-        <v>3.5</v>
+        <v>1.95</v>
       </c>
       <c r="F29">
-        <v>323</v>
+        <v>127</v>
       </c>
       <c r="G29">
-        <v>1200</v>
+        <v>935</v>
       </c>
       <c r="H29" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
     </row>
     <row r="30" spans="1:8">
@@ -1478,22 +1475,22 @@
         <v>36</v>
       </c>
       <c r="C30">
-        <v>0</v>
+        <v>18792</v>
       </c>
       <c r="D30">
         <v>0</v>
       </c>
       <c r="E30">
-        <v>1772.35</v>
+        <v>178.948</v>
       </c>
       <c r="F30">
-        <v>524</v>
+        <v>74</v>
       </c>
       <c r="G30">
-        <v>1200</v>
+        <v>910</v>
       </c>
       <c r="H30" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
     </row>
     <row r="31" spans="1:8">
@@ -1504,22 +1501,22 @@
         <v>37</v>
       </c>
       <c r="C31">
-        <v>90775</v>
+        <v>22985</v>
       </c>
       <c r="D31">
-        <v>1947</v>
+        <v>462</v>
       </c>
       <c r="E31">
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="F31">
-        <v>396</v>
+        <v>60</v>
       </c>
       <c r="G31">
-        <v>1180</v>
+        <v>900</v>
       </c>
       <c r="H31" t="s">
-        <v>106</v>
+        <v>109</v>
       </c>
     </row>
     <row r="32" spans="1:8">
@@ -1530,22 +1527,22 @@
         <v>38</v>
       </c>
       <c r="C32">
-        <v>11053</v>
+        <v>20785</v>
       </c>
       <c r="D32">
-        <v>686</v>
+        <v>0</v>
       </c>
       <c r="E32">
-        <v>10.64</v>
+        <v>3.47</v>
       </c>
       <c r="F32">
-        <v>127</v>
+        <v>638</v>
       </c>
       <c r="G32">
-        <v>1050</v>
+        <v>900</v>
       </c>
       <c r="H32" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
     </row>
     <row r="33" spans="1:8">
@@ -1556,19 +1553,22 @@
         <v>39</v>
       </c>
       <c r="C33">
-        <v>43489</v>
+        <v>0</v>
       </c>
       <c r="D33">
-        <v>129</v>
+        <v>0</v>
       </c>
       <c r="E33">
-        <v>0</v>
+        <v>927.35</v>
       </c>
       <c r="F33">
-        <v>0</v>
+        <v>221</v>
       </c>
       <c r="G33">
-        <v>1000</v>
+        <v>900</v>
+      </c>
+      <c r="H33" t="s">
+        <v>104</v>
       </c>
     </row>
     <row r="34" spans="1:8">
@@ -1579,22 +1579,22 @@
         <v>40</v>
       </c>
       <c r="C34">
-        <v>7547</v>
+        <v>16474</v>
       </c>
       <c r="D34">
-        <v>405</v>
+        <v>705</v>
       </c>
       <c r="E34">
-        <v>1.95</v>
+        <v>0</v>
       </c>
       <c r="F34">
-        <v>127</v>
+        <v>77</v>
       </c>
       <c r="G34">
-        <v>935</v>
+        <v>885</v>
       </c>
       <c r="H34" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
     </row>
     <row r="35" spans="1:8">
@@ -1605,19 +1605,22 @@
         <v>41</v>
       </c>
       <c r="C35">
-        <v>43587</v>
+        <v>26223</v>
       </c>
       <c r="D35">
-        <v>0</v>
+        <v>1087</v>
       </c>
       <c r="E35">
-        <v>0</v>
+        <v>24.03</v>
       </c>
       <c r="F35">
-        <v>0</v>
+        <v>34</v>
       </c>
       <c r="G35">
-        <v>930</v>
+        <v>850</v>
+      </c>
+      <c r="H35" t="s">
+        <v>104</v>
       </c>
     </row>
     <row r="36" spans="1:8">
@@ -1628,22 +1631,22 @@
         <v>42</v>
       </c>
       <c r="C36">
-        <v>20785</v>
+        <v>5028</v>
       </c>
       <c r="D36">
         <v>0</v>
       </c>
       <c r="E36">
-        <v>3.47</v>
+        <v>0</v>
       </c>
       <c r="F36">
-        <v>431</v>
+        <v>172</v>
       </c>
       <c r="G36">
-        <v>900</v>
+        <v>835</v>
       </c>
       <c r="H36" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
     </row>
     <row r="37" spans="1:8">
@@ -1654,22 +1657,22 @@
         <v>43</v>
       </c>
       <c r="C37">
-        <v>22985</v>
+        <v>5866</v>
       </c>
       <c r="D37">
-        <v>462</v>
+        <v>2709</v>
       </c>
       <c r="E37">
-        <v>0</v>
+        <v>4.07</v>
       </c>
       <c r="F37">
-        <v>60</v>
+        <v>432</v>
       </c>
       <c r="G37">
-        <v>900</v>
+        <v>835</v>
       </c>
       <c r="H37" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
     </row>
     <row r="38" spans="1:8">
@@ -1680,22 +1683,22 @@
         <v>44</v>
       </c>
       <c r="C38">
-        <v>16474</v>
+        <v>21694</v>
       </c>
       <c r="D38">
-        <v>705</v>
+        <v>1975</v>
       </c>
       <c r="E38">
-        <v>0</v>
+        <v>17.21</v>
       </c>
       <c r="F38">
-        <v>77</v>
+        <v>130</v>
       </c>
       <c r="G38">
-        <v>885</v>
+        <v>830</v>
       </c>
       <c r="H38" t="s">
-        <v>105</v>
+        <v>111</v>
       </c>
     </row>
     <row r="39" spans="1:8">
@@ -1706,22 +1709,22 @@
         <v>45</v>
       </c>
       <c r="C39">
-        <v>26223</v>
+        <v>0</v>
       </c>
       <c r="D39">
-        <v>1087</v>
+        <v>593</v>
       </c>
       <c r="E39">
-        <v>24.03</v>
+        <v>0</v>
       </c>
       <c r="F39">
-        <v>34</v>
+        <v>141</v>
       </c>
       <c r="G39">
-        <v>850</v>
+        <v>800</v>
       </c>
       <c r="H39" t="s">
-        <v>106</v>
+        <v>109</v>
       </c>
     </row>
     <row r="40" spans="1:8">
@@ -1732,22 +1735,22 @@
         <v>46</v>
       </c>
       <c r="C40">
-        <v>5028</v>
+        <v>26102</v>
       </c>
       <c r="D40">
         <v>0</v>
       </c>
       <c r="E40">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="F40">
-        <v>172</v>
+        <v>37</v>
       </c>
       <c r="G40">
-        <v>835</v>
+        <v>800</v>
       </c>
       <c r="H40" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
     </row>
     <row r="41" spans="1:8">
@@ -1758,22 +1761,22 @@
         <v>47</v>
       </c>
       <c r="C41">
-        <v>5866</v>
+        <v>0</v>
       </c>
       <c r="D41">
-        <v>2460</v>
+        <v>555</v>
       </c>
       <c r="E41">
-        <v>4.07</v>
+        <v>0</v>
       </c>
       <c r="F41">
-        <v>432</v>
+        <v>91</v>
       </c>
       <c r="G41">
-        <v>835</v>
+        <v>800</v>
       </c>
       <c r="H41" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
     </row>
     <row r="42" spans="1:8">
@@ -1784,22 +1787,22 @@
         <v>48</v>
       </c>
       <c r="C42">
-        <v>21694</v>
+        <v>12628</v>
       </c>
       <c r="D42">
-        <v>1975</v>
+        <v>153</v>
       </c>
       <c r="E42">
-        <v>17.21</v>
+        <v>18.28</v>
       </c>
       <c r="F42">
-        <v>252</v>
+        <v>85</v>
       </c>
       <c r="G42">
-        <v>830</v>
+        <v>750</v>
       </c>
       <c r="H42" t="s">
-        <v>113</v>
+        <v>104</v>
       </c>
     </row>
     <row r="43" spans="1:8">
@@ -1810,22 +1813,22 @@
         <v>49</v>
       </c>
       <c r="C43">
-        <v>0</v>
+        <v>10382</v>
       </c>
       <c r="D43">
-        <v>555</v>
+        <v>611</v>
       </c>
       <c r="E43">
-        <v>0</v>
+        <v>4.73</v>
       </c>
       <c r="F43">
-        <v>91</v>
+        <v>173</v>
       </c>
       <c r="G43">
-        <v>800</v>
+        <v>750</v>
       </c>
       <c r="H43" t="s">
-        <v>112</v>
+        <v>105</v>
       </c>
     </row>
     <row r="44" spans="1:8">
@@ -1836,22 +1839,19 @@
         <v>50</v>
       </c>
       <c r="C44">
-        <v>26102</v>
+        <v>33417</v>
       </c>
       <c r="D44">
-        <v>0</v>
+        <v>129</v>
       </c>
       <c r="E44">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="F44">
-        <v>37</v>
+        <v>0</v>
       </c>
       <c r="G44">
-        <v>800</v>
-      </c>
-      <c r="H44" t="s">
-        <v>112</v>
+        <v>750</v>
       </c>
     </row>
     <row r="45" spans="1:8">
@@ -1862,22 +1862,22 @@
         <v>51</v>
       </c>
       <c r="C45">
-        <v>0</v>
+        <v>11053</v>
       </c>
       <c r="D45">
-        <v>593</v>
+        <v>459</v>
       </c>
       <c r="E45">
-        <v>0</v>
+        <v>7.140000000000001</v>
       </c>
       <c r="F45">
-        <v>141</v>
+        <v>85</v>
       </c>
       <c r="G45">
-        <v>800</v>
+        <v>750</v>
       </c>
       <c r="H45" t="s">
-        <v>112</v>
+        <v>104</v>
       </c>
     </row>
     <row r="46" spans="1:8">
@@ -1888,19 +1888,22 @@
         <v>52</v>
       </c>
       <c r="C46">
-        <v>29676</v>
+        <v>0</v>
       </c>
       <c r="D46">
-        <v>0</v>
+        <v>254</v>
       </c>
       <c r="E46">
         <v>0</v>
       </c>
       <c r="F46">
-        <v>0</v>
+        <v>83</v>
       </c>
       <c r="G46">
-        <v>760</v>
+        <v>700</v>
+      </c>
+      <c r="H46" t="s">
+        <v>104</v>
       </c>
     </row>
     <row r="47" spans="1:8">
@@ -1911,22 +1914,19 @@
         <v>53</v>
       </c>
       <c r="C47">
-        <v>20000</v>
+        <v>31488</v>
       </c>
       <c r="D47">
-        <v>26</v>
+        <v>0</v>
       </c>
       <c r="E47">
-        <v>3.6</v>
+        <v>0</v>
       </c>
       <c r="F47">
-        <v>3.6</v>
+        <v>0</v>
       </c>
       <c r="G47">
-        <v>760</v>
-      </c>
-      <c r="H47" t="s">
-        <v>106</v>
+        <v>680</v>
       </c>
     </row>
     <row r="48" spans="1:8">
@@ -1937,22 +1937,22 @@
         <v>54</v>
       </c>
       <c r="C48">
-        <v>12628</v>
+        <v>8423</v>
       </c>
       <c r="D48">
-        <v>153</v>
+        <v>1807</v>
       </c>
       <c r="E48">
-        <v>18.28</v>
+        <v>7.48</v>
       </c>
       <c r="F48">
-        <v>85</v>
+        <v>115</v>
       </c>
       <c r="G48">
-        <v>750</v>
+        <v>680</v>
       </c>
       <c r="H48" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
     </row>
     <row r="49" spans="1:8">
@@ -1963,22 +1963,22 @@
         <v>55</v>
       </c>
       <c r="C49">
-        <v>10382</v>
+        <v>12344</v>
       </c>
       <c r="D49">
-        <v>611</v>
+        <v>553</v>
       </c>
       <c r="E49">
-        <v>4.73</v>
+        <v>13.9</v>
       </c>
       <c r="F49">
-        <v>126</v>
+        <v>148</v>
       </c>
       <c r="G49">
-        <v>750</v>
+        <v>660</v>
       </c>
       <c r="H49" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
     </row>
     <row r="50" spans="1:8">
@@ -1989,22 +1989,22 @@
         <v>56</v>
       </c>
       <c r="C50">
-        <v>12344</v>
+        <v>3126</v>
       </c>
       <c r="D50">
-        <v>553</v>
+        <v>0</v>
       </c>
       <c r="E50">
-        <v>13.9</v>
+        <v>11.36</v>
       </c>
       <c r="F50">
-        <v>148</v>
+        <v>115</v>
       </c>
       <c r="G50">
-        <v>660</v>
+        <v>625</v>
       </c>
       <c r="H50" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
     </row>
     <row r="51" spans="1:8">
@@ -2015,22 +2015,22 @@
         <v>57</v>
       </c>
       <c r="C51">
-        <v>9858</v>
+        <v>15309</v>
       </c>
       <c r="D51">
-        <v>0</v>
+        <v>1903</v>
       </c>
       <c r="E51">
-        <v>0</v>
+        <v>19.22</v>
       </c>
       <c r="F51">
-        <v>28</v>
+        <v>137</v>
       </c>
       <c r="G51">
-        <v>650</v>
+        <v>600</v>
       </c>
       <c r="H51" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
     </row>
     <row r="52" spans="1:8">
@@ -2041,22 +2041,19 @@
         <v>58</v>
       </c>
       <c r="C52">
-        <v>3126</v>
+        <v>23105</v>
       </c>
       <c r="D52">
         <v>0</v>
       </c>
       <c r="E52">
-        <v>11.36</v>
+        <v>0</v>
       </c>
       <c r="F52">
-        <v>115</v>
+        <v>0</v>
       </c>
       <c r="G52">
-        <v>625</v>
-      </c>
-      <c r="H52" t="s">
-        <v>106</v>
+        <v>600</v>
       </c>
     </row>
     <row r="53" spans="1:8">
@@ -2067,22 +2064,22 @@
         <v>59</v>
       </c>
       <c r="C53">
-        <v>15309</v>
+        <v>0</v>
       </c>
       <c r="D53">
-        <v>1903</v>
+        <v>0</v>
       </c>
       <c r="E53">
-        <v>19.22</v>
+        <v>15</v>
       </c>
       <c r="F53">
-        <v>137</v>
+        <v>140</v>
       </c>
       <c r="G53">
         <v>600</v>
       </c>
       <c r="H53" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
     </row>
     <row r="54" spans="1:8">
@@ -2093,22 +2090,22 @@
         <v>60</v>
       </c>
       <c r="C54">
-        <v>0</v>
+        <v>21589</v>
       </c>
       <c r="D54">
         <v>0</v>
       </c>
       <c r="E54">
-        <v>15</v>
+        <v>0.28</v>
       </c>
       <c r="F54">
-        <v>140</v>
+        <v>8</v>
       </c>
       <c r="G54">
-        <v>600</v>
+        <v>585</v>
       </c>
       <c r="H54" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
     </row>
     <row r="55" spans="1:8">
@@ -2119,7 +2116,7 @@
         <v>61</v>
       </c>
       <c r="C55">
-        <v>23105</v>
+        <v>14246</v>
       </c>
       <c r="D55">
         <v>0</v>
@@ -2128,10 +2125,13 @@
         <v>0</v>
       </c>
       <c r="F55">
-        <v>0</v>
+        <v>44</v>
       </c>
       <c r="G55">
-        <v>600</v>
+        <v>550</v>
+      </c>
+      <c r="H55" t="s">
+        <v>111</v>
       </c>
     </row>
     <row r="56" spans="1:8">
@@ -2142,22 +2142,22 @@
         <v>62</v>
       </c>
       <c r="C56">
-        <v>0</v>
+        <v>10701</v>
       </c>
       <c r="D56">
-        <v>0</v>
+        <v>2495</v>
       </c>
       <c r="E56">
-        <v>29.8</v>
+        <v>7.7</v>
       </c>
       <c r="F56">
-        <v>128</v>
+        <v>934</v>
       </c>
       <c r="G56">
-        <v>600</v>
+        <v>550</v>
       </c>
       <c r="H56" t="s">
-        <v>106</v>
+        <v>109</v>
       </c>
     </row>
     <row r="57" spans="1:8">
@@ -2168,22 +2168,19 @@
         <v>63</v>
       </c>
       <c r="C57">
-        <v>0</v>
+        <v>15601</v>
       </c>
       <c r="D57">
         <v>0</v>
       </c>
       <c r="E57">
-        <v>17.46</v>
+        <v>0</v>
       </c>
       <c r="F57">
-        <v>198</v>
+        <v>0</v>
       </c>
       <c r="G57">
-        <v>600</v>
-      </c>
-      <c r="H57" t="s">
-        <v>106</v>
+        <v>525</v>
       </c>
     </row>
     <row r="58" spans="1:8">
@@ -2194,19 +2191,19 @@
         <v>64</v>
       </c>
       <c r="C58">
-        <v>28488</v>
+        <v>19655</v>
       </c>
       <c r="D58">
         <v>0</v>
       </c>
       <c r="E58">
-        <v>8.5</v>
+        <v>0</v>
       </c>
       <c r="F58">
-        <v>181</v>
+        <v>0</v>
       </c>
       <c r="G58">
-        <v>585</v>
+        <v>510</v>
       </c>
     </row>
     <row r="59" spans="1:8">
@@ -2217,22 +2214,19 @@
         <v>65</v>
       </c>
       <c r="C59">
-        <v>21589</v>
+        <v>20818</v>
       </c>
       <c r="D59">
         <v>0</v>
       </c>
       <c r="E59">
-        <v>0.28</v>
+        <v>0</v>
       </c>
       <c r="F59">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="G59">
-        <v>585</v>
-      </c>
-      <c r="H59" t="s">
-        <v>106</v>
+        <v>500</v>
       </c>
     </row>
     <row r="60" spans="1:8">
@@ -2243,22 +2237,19 @@
         <v>66</v>
       </c>
       <c r="C60">
-        <v>10701</v>
+        <v>21894</v>
       </c>
       <c r="D60">
-        <v>2495</v>
+        <v>0</v>
       </c>
       <c r="E60">
-        <v>7.7</v>
+        <v>0</v>
       </c>
       <c r="F60">
-        <v>954</v>
+        <v>0</v>
       </c>
       <c r="G60">
-        <v>550</v>
-      </c>
-      <c r="H60" t="s">
-        <v>112</v>
+        <v>500</v>
       </c>
     </row>
     <row r="61" spans="1:8">
@@ -2269,19 +2260,22 @@
         <v>67</v>
       </c>
       <c r="C61">
-        <v>15544</v>
+        <v>3646</v>
       </c>
       <c r="D61">
-        <v>0</v>
+        <v>1786</v>
       </c>
       <c r="E61">
-        <v>0</v>
+        <v>19.54</v>
       </c>
       <c r="F61">
-        <v>0</v>
+        <v>256</v>
       </c>
       <c r="G61">
-        <v>525</v>
+        <v>450</v>
+      </c>
+      <c r="H61" t="s">
+        <v>104</v>
       </c>
     </row>
     <row r="62" spans="1:8">
@@ -2292,19 +2286,19 @@
         <v>68</v>
       </c>
       <c r="C62">
-        <v>21664</v>
+        <v>21755</v>
       </c>
       <c r="D62">
         <v>0</v>
       </c>
       <c r="E62">
-        <v>0</v>
+        <v>8.5</v>
       </c>
       <c r="F62">
-        <v>0</v>
+        <v>181</v>
       </c>
       <c r="G62">
-        <v>500</v>
+        <v>450</v>
       </c>
     </row>
     <row r="63" spans="1:8">
@@ -2315,19 +2309,22 @@
         <v>69</v>
       </c>
       <c r="C63">
-        <v>21894</v>
+        <v>14130</v>
       </c>
       <c r="D63">
         <v>0</v>
       </c>
       <c r="E63">
-        <v>0</v>
+        <v>29.26</v>
       </c>
       <c r="F63">
-        <v>0</v>
+        <v>464</v>
       </c>
       <c r="G63">
-        <v>500</v>
+        <v>450</v>
+      </c>
+      <c r="H63" t="s">
+        <v>104</v>
       </c>
     </row>
     <row r="64" spans="1:8">
@@ -2338,19 +2335,22 @@
         <v>70</v>
       </c>
       <c r="C64">
-        <v>20818</v>
+        <v>12015</v>
       </c>
       <c r="D64">
-        <v>0</v>
+        <v>554</v>
       </c>
       <c r="E64">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="F64">
-        <v>0</v>
+        <v>159</v>
       </c>
       <c r="G64">
-        <v>500</v>
+        <v>450</v>
+      </c>
+      <c r="H64" t="s">
+        <v>104</v>
       </c>
     </row>
     <row r="65" spans="1:8">
@@ -2361,19 +2361,22 @@
         <v>71</v>
       </c>
       <c r="C65">
-        <v>26669</v>
+        <v>800</v>
       </c>
       <c r="D65">
-        <v>0</v>
+        <v>266</v>
       </c>
       <c r="E65">
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="F65">
-        <v>0</v>
+        <v>58</v>
       </c>
       <c r="G65">
-        <v>500</v>
+        <v>425</v>
+      </c>
+      <c r="H65" t="s">
+        <v>109</v>
       </c>
     </row>
     <row r="66" spans="1:8">
@@ -2384,22 +2387,22 @@
         <v>72</v>
       </c>
       <c r="C66">
-        <v>8423</v>
+        <v>8419</v>
       </c>
       <c r="D66">
-        <v>1807</v>
+        <v>0</v>
       </c>
       <c r="E66">
-        <v>7.48</v>
+        <v>4.88</v>
       </c>
       <c r="F66">
-        <v>55</v>
+        <v>180</v>
       </c>
       <c r="G66">
-        <v>480</v>
+        <v>380</v>
       </c>
       <c r="H66" t="s">
-        <v>112</v>
+        <v>104</v>
       </c>
     </row>
     <row r="67" spans="1:8">
@@ -2410,22 +2413,22 @@
         <v>73</v>
       </c>
       <c r="C67">
-        <v>12015</v>
+        <v>9183</v>
       </c>
       <c r="D67">
-        <v>554</v>
+        <v>378</v>
       </c>
       <c r="E67">
-        <v>9</v>
+        <v>6.1</v>
       </c>
       <c r="F67">
-        <v>159</v>
+        <v>27</v>
       </c>
       <c r="G67">
-        <v>450</v>
+        <v>380</v>
       </c>
       <c r="H67" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
     </row>
     <row r="68" spans="1:8">
@@ -2436,22 +2439,19 @@
         <v>74</v>
       </c>
       <c r="C68">
-        <v>14130</v>
+        <v>17383</v>
       </c>
       <c r="D68">
         <v>0</v>
       </c>
       <c r="E68">
-        <v>15.43</v>
+        <v>9</v>
       </c>
       <c r="F68">
-        <v>500</v>
+        <v>0</v>
       </c>
       <c r="G68">
-        <v>450</v>
-      </c>
-      <c r="H68" t="s">
-        <v>106</v>
+        <v>375</v>
       </c>
     </row>
     <row r="69" spans="1:8">
@@ -2462,22 +2462,19 @@
         <v>75</v>
       </c>
       <c r="C69">
-        <v>10994</v>
+        <v>13307</v>
       </c>
       <c r="D69">
-        <v>759</v>
+        <v>0</v>
       </c>
       <c r="E69">
         <v>0</v>
       </c>
       <c r="F69">
-        <v>80</v>
+        <v>0</v>
       </c>
       <c r="G69">
-        <v>450</v>
-      </c>
-      <c r="H69" t="s">
-        <v>106</v>
+        <v>375</v>
       </c>
     </row>
     <row r="70" spans="1:8">
@@ -2488,22 +2485,22 @@
         <v>76</v>
       </c>
       <c r="C70">
-        <v>3646</v>
+        <v>5064</v>
       </c>
       <c r="D70">
-        <v>1786</v>
+        <v>335</v>
       </c>
       <c r="E70">
-        <v>19.54</v>
+        <v>2.82</v>
       </c>
       <c r="F70">
-        <v>276</v>
+        <v>37</v>
       </c>
       <c r="G70">
-        <v>450</v>
+        <v>335</v>
       </c>
       <c r="H70" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
     </row>
     <row r="71" spans="1:8">
@@ -2514,22 +2511,22 @@
         <v>77</v>
       </c>
       <c r="C71">
-        <v>800</v>
+        <v>5204</v>
       </c>
       <c r="D71">
-        <v>266</v>
+        <v>0</v>
       </c>
       <c r="E71">
         <v>0</v>
       </c>
       <c r="F71">
-        <v>58</v>
+        <v>52</v>
       </c>
       <c r="G71">
-        <v>425</v>
+        <v>335</v>
       </c>
       <c r="H71" t="s">
-        <v>112</v>
+        <v>104</v>
       </c>
     </row>
     <row r="72" spans="1:8">
@@ -2540,22 +2537,22 @@
         <v>78</v>
       </c>
       <c r="C72">
-        <v>14</v>
+        <v>1969</v>
       </c>
       <c r="D72">
-        <v>0</v>
+        <v>310</v>
       </c>
       <c r="E72">
-        <v>0</v>
+        <v>1.48</v>
       </c>
       <c r="F72">
-        <v>44</v>
+        <v>64</v>
       </c>
       <c r="G72">
-        <v>425</v>
+        <v>325</v>
       </c>
       <c r="H72" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
     </row>
     <row r="73" spans="1:8">
@@ -2566,22 +2563,22 @@
         <v>79</v>
       </c>
       <c r="C73">
-        <v>8419</v>
+        <v>4697</v>
       </c>
       <c r="D73">
-        <v>0</v>
+        <v>221</v>
       </c>
       <c r="E73">
-        <v>4.88</v>
+        <v>0</v>
       </c>
       <c r="F73">
-        <v>180</v>
+        <v>38</v>
       </c>
       <c r="G73">
-        <v>380</v>
+        <v>325</v>
       </c>
       <c r="H73" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
     </row>
     <row r="74" spans="1:8">
@@ -2592,22 +2589,22 @@
         <v>80</v>
       </c>
       <c r="C74">
-        <v>9183</v>
+        <v>4576</v>
       </c>
       <c r="D74">
-        <v>378</v>
+        <v>29</v>
       </c>
       <c r="E74">
-        <v>6.1</v>
+        <v>2.12</v>
       </c>
       <c r="F74">
-        <v>27</v>
+        <v>13</v>
       </c>
       <c r="G74">
-        <v>380</v>
+        <v>325</v>
       </c>
       <c r="H74" t="s">
-        <v>106</v>
+        <v>111</v>
       </c>
     </row>
     <row r="75" spans="1:8">
@@ -2618,7 +2615,7 @@
         <v>81</v>
       </c>
       <c r="C75">
-        <v>13204</v>
+        <v>4929</v>
       </c>
       <c r="D75">
         <v>0</v>
@@ -2627,10 +2624,13 @@
         <v>0</v>
       </c>
       <c r="F75">
-        <v>0</v>
+        <v>18</v>
       </c>
       <c r="G75">
-        <v>375</v>
+        <v>325</v>
+      </c>
+      <c r="H75" t="s">
+        <v>104</v>
       </c>
     </row>
     <row r="76" spans="1:8">
@@ -2641,22 +2641,22 @@
         <v>82</v>
       </c>
       <c r="C76">
-        <v>5204</v>
+        <v>0</v>
       </c>
       <c r="D76">
         <v>0</v>
       </c>
       <c r="E76">
-        <v>0</v>
+        <v>14.9</v>
       </c>
       <c r="F76">
-        <v>52</v>
+        <v>64</v>
       </c>
       <c r="G76">
-        <v>335</v>
+        <v>300</v>
       </c>
       <c r="H76" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
     </row>
     <row r="77" spans="1:8">
@@ -2667,22 +2667,22 @@
         <v>83</v>
       </c>
       <c r="C77">
-        <v>5064</v>
+        <v>0</v>
       </c>
       <c r="D77">
-        <v>335</v>
+        <v>277</v>
       </c>
       <c r="E77">
-        <v>2.82</v>
+        <v>0.27</v>
       </c>
       <c r="F77">
-        <v>37</v>
+        <v>56</v>
       </c>
       <c r="G77">
-        <v>335</v>
+        <v>300</v>
       </c>
       <c r="H77" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
     </row>
     <row r="78" spans="1:8">
@@ -2693,22 +2693,22 @@
         <v>84</v>
       </c>
       <c r="C78">
-        <v>1969</v>
+        <v>0</v>
       </c>
       <c r="D78">
-        <v>310</v>
+        <v>0</v>
       </c>
       <c r="E78">
-        <v>1.48</v>
+        <v>2.94</v>
       </c>
       <c r="F78">
-        <v>64</v>
+        <v>39</v>
       </c>
       <c r="G78">
-        <v>325</v>
+        <v>300</v>
       </c>
       <c r="H78" t="s">
-        <v>113</v>
+        <v>104</v>
       </c>
     </row>
     <row r="79" spans="1:8">
@@ -2719,22 +2719,22 @@
         <v>85</v>
       </c>
       <c r="C79">
-        <v>4697</v>
+        <v>0</v>
       </c>
       <c r="D79">
-        <v>221</v>
+        <v>355</v>
       </c>
       <c r="E79">
-        <v>0</v>
+        <v>3.49</v>
       </c>
       <c r="F79">
-        <v>38</v>
+        <v>57</v>
       </c>
       <c r="G79">
-        <v>325</v>
+        <v>300</v>
       </c>
       <c r="H79" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
     </row>
     <row r="80" spans="1:8">
@@ -2745,25 +2745,22 @@
         <v>86</v>
       </c>
       <c r="C80">
-        <v>4576</v>
+        <v>10165</v>
       </c>
       <c r="D80">
-        <v>29</v>
+        <v>0</v>
       </c>
       <c r="E80">
-        <v>2.12</v>
+        <v>0</v>
       </c>
       <c r="F80">
-        <v>13</v>
+        <v>0</v>
       </c>
       <c r="G80">
-        <v>325</v>
-      </c>
-      <c r="H80" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="81" spans="1:8">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="81" spans="1:7">
       <c r="A81">
         <v>80</v>
       </c>
@@ -2771,25 +2768,22 @@
         <v>87</v>
       </c>
       <c r="C81">
-        <v>0</v>
+        <v>13745</v>
       </c>
       <c r="D81">
-        <v>0</v>
+        <v>1795</v>
       </c>
       <c r="E81">
-        <v>2.94</v>
+        <v>14.23</v>
       </c>
       <c r="F81">
-        <v>39</v>
+        <v>420</v>
       </c>
       <c r="G81">
-        <v>300</v>
-      </c>
-      <c r="H81" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="82" spans="1:8">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="82" spans="1:7">
       <c r="A82">
         <v>81</v>
       </c>
@@ -2797,25 +2791,22 @@
         <v>88</v>
       </c>
       <c r="C82">
-        <v>0</v>
+        <v>13570</v>
       </c>
       <c r="D82">
-        <v>293</v>
+        <v>679</v>
       </c>
       <c r="E82">
-        <v>2.78</v>
+        <v>0</v>
       </c>
       <c r="F82">
-        <v>57</v>
+        <v>178</v>
       </c>
       <c r="G82">
-        <v>300</v>
-      </c>
-      <c r="H82" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="83" spans="1:8">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="83" spans="1:7">
       <c r="A83">
         <v>82</v>
       </c>
@@ -2823,25 +2814,22 @@
         <v>89</v>
       </c>
       <c r="C83">
-        <v>0</v>
+        <v>10994</v>
       </c>
       <c r="D83">
-        <v>277</v>
+        <v>759</v>
       </c>
       <c r="E83">
-        <v>0.27</v>
+        <v>0</v>
       </c>
       <c r="F83">
-        <v>56</v>
+        <v>80</v>
       </c>
       <c r="G83">
-        <v>300</v>
-      </c>
-      <c r="H83" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="84" spans="1:8">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="84" spans="1:7">
       <c r="A84">
         <v>83</v>
       </c>
@@ -2849,22 +2837,22 @@
         <v>90</v>
       </c>
       <c r="C84">
-        <v>13745</v>
+        <v>10268</v>
       </c>
       <c r="D84">
-        <v>3200</v>
+        <v>0</v>
       </c>
       <c r="E84">
-        <v>14.23</v>
+        <v>0</v>
       </c>
       <c r="F84">
-        <v>180</v>
+        <v>0</v>
       </c>
       <c r="G84">
-        <v>270</v>
-      </c>
-    </row>
-    <row r="85" spans="1:8">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="85" spans="1:7">
       <c r="A85">
         <v>84</v>
       </c>
@@ -2872,22 +2860,22 @@
         <v>91</v>
       </c>
       <c r="C85">
-        <v>10165</v>
+        <v>13522</v>
       </c>
       <c r="D85">
-        <v>0</v>
+        <v>1118</v>
       </c>
       <c r="E85">
-        <v>0</v>
+        <v>25.3</v>
       </c>
       <c r="F85">
         <v>0</v>
       </c>
       <c r="G85">
-        <v>270</v>
-      </c>
-    </row>
-    <row r="86" spans="1:8">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="86" spans="1:7">
       <c r="A86">
         <v>85</v>
       </c>
@@ -2895,22 +2883,22 @@
         <v>92</v>
       </c>
       <c r="C86">
-        <v>13570</v>
+        <v>10832</v>
       </c>
       <c r="D86">
-        <v>679</v>
+        <v>0</v>
       </c>
       <c r="E86">
         <v>0</v>
       </c>
       <c r="F86">
-        <v>178</v>
+        <v>0</v>
       </c>
       <c r="G86">
         <v>250</v>
       </c>
     </row>
-    <row r="87" spans="1:8">
+    <row r="87" spans="1:7">
       <c r="A87">
         <v>86</v>
       </c>
@@ -2918,7 +2906,7 @@
         <v>93</v>
       </c>
       <c r="C87">
-        <v>10268</v>
+        <v>0</v>
       </c>
       <c r="D87">
         <v>0</v>
@@ -2927,13 +2915,13 @@
         <v>0</v>
       </c>
       <c r="F87">
-        <v>0</v>
+        <v>119</v>
       </c>
       <c r="G87">
-        <v>250</v>
-      </c>
-    </row>
-    <row r="88" spans="1:8">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="88" spans="1:7">
       <c r="A88">
         <v>87</v>
       </c>
@@ -2941,22 +2929,22 @@
         <v>94</v>
       </c>
       <c r="C88">
-        <v>13522</v>
+        <v>0</v>
       </c>
       <c r="D88">
-        <v>1118</v>
+        <v>3681</v>
       </c>
       <c r="E88">
-        <v>25.3</v>
+        <v>0</v>
       </c>
       <c r="F88">
-        <v>0</v>
+        <v>105</v>
       </c>
       <c r="G88">
-        <v>250</v>
-      </c>
-    </row>
-    <row r="89" spans="1:8">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="89" spans="1:7">
       <c r="A89">
         <v>88</v>
       </c>
@@ -2964,22 +2952,22 @@
         <v>95</v>
       </c>
       <c r="C89">
-        <v>0</v>
+        <v>10000</v>
       </c>
       <c r="D89">
-        <v>0</v>
+        <v>13</v>
       </c>
       <c r="E89">
-        <v>0</v>
+        <v>1.8</v>
       </c>
       <c r="F89">
-        <v>119</v>
+        <v>1.8</v>
       </c>
       <c r="G89">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="90" spans="1:8">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="90" spans="1:7">
       <c r="A90">
         <v>89</v>
       </c>
@@ -2987,22 +2975,22 @@
         <v>96</v>
       </c>
       <c r="C90">
-        <v>0</v>
+        <v>7447</v>
       </c>
       <c r="D90">
-        <v>3681</v>
+        <v>1751</v>
       </c>
       <c r="E90">
-        <v>0</v>
+        <v>6.18</v>
       </c>
       <c r="F90">
-        <v>390</v>
+        <v>90</v>
       </c>
       <c r="G90">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="91" spans="1:8">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="91" spans="1:7">
       <c r="A91">
         <v>90</v>
       </c>
@@ -3010,22 +2998,22 @@
         <v>97</v>
       </c>
       <c r="C91">
-        <v>7447</v>
+        <v>7367</v>
       </c>
       <c r="D91">
-        <v>1751</v>
+        <v>0</v>
       </c>
       <c r="E91">
-        <v>6.18</v>
+        <v>0</v>
       </c>
       <c r="F91">
-        <v>90</v>
+        <v>0</v>
       </c>
       <c r="G91">
         <v>135</v>
       </c>
     </row>
-    <row r="92" spans="1:8">
+    <row r="92" spans="1:7">
       <c r="A92">
         <v>91</v>
       </c>
@@ -3033,7 +3021,7 @@
         <v>98</v>
       </c>
       <c r="C92">
-        <v>7367</v>
+        <v>4189</v>
       </c>
       <c r="D92">
         <v>0</v>
@@ -3045,10 +3033,10 @@
         <v>0</v>
       </c>
       <c r="G92">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="93" spans="1:8">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="93" spans="1:7">
       <c r="A93">
         <v>92</v>
       </c>
@@ -3056,10 +3044,10 @@
         <v>99</v>
       </c>
       <c r="C93">
-        <v>4189</v>
+        <v>4439</v>
       </c>
       <c r="D93">
-        <v>0</v>
+        <v>1026</v>
       </c>
       <c r="E93">
         <v>0</v>
@@ -3071,7 +3059,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="94" spans="1:8">
+    <row r="94" spans="1:7">
       <c r="A94">
         <v>93</v>
       </c>
@@ -3079,10 +3067,10 @@
         <v>100</v>
       </c>
       <c r="C94">
-        <v>4439</v>
+        <v>0</v>
       </c>
       <c r="D94">
-        <v>1026</v>
+        <v>0</v>
       </c>
       <c r="E94">
         <v>0</v>
@@ -3091,10 +3079,10 @@
         <v>0</v>
       </c>
       <c r="G94">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="95" spans="1:8">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="95" spans="1:7">
       <c r="A95">
         <v>94</v>
       </c>
@@ -3117,7 +3105,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="96" spans="1:8">
+    <row r="96" spans="1:7">
       <c r="A96">
         <v>95</v>
       </c>
@@ -3137,29 +3125,6 @@
         <v>0</v>
       </c>
       <c r="G96">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="97" spans="1:7">
-      <c r="A97">
-        <v>96</v>
-      </c>
-      <c r="B97" t="s">
-        <v>103</v>
-      </c>
-      <c r="C97">
-        <v>0</v>
-      </c>
-      <c r="D97">
-        <v>0</v>
-      </c>
-      <c r="E97">
-        <v>0</v>
-      </c>
-      <c r="F97">
-        <v>0</v>
-      </c>
-      <c r="G97">
         <v>100</v>
       </c>
     </row>
